--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316BAD1D-122E-4074-8F6E-4E03E09F8FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -165,9 +164,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>RODRIGUEZ, JOSEHINE</t>
-  </si>
-  <si>
     <t>CASUAL</t>
   </si>
   <si>
@@ -249,13 +245,22 @@
     <t>RODRIGUEZ, JOSEPHINE</t>
   </si>
   <si>
-    <t>4/17,18,19,20,21</t>
+    <t>4/17,18,19,20</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/5,15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1181,25 +1186,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1211,25 +1216,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1536,39 +1541,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="E3" sqref="E3"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
@@ -1584,7 +1589,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1604,12 +1609,12 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
@@ -1624,7 +1629,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1632,7 +1637,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1645,7 +1650,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -1662,7 +1667,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1721,9 +1726,9 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1743,7 +1748,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1763,7 +1768,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1783,7 +1788,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1803,7 +1808,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1823,12 +1828,12 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -1846,10 +1851,10 @@
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
       <c r="K15" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1869,7 +1874,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1889,7 +1894,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1909,7 +1914,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1929,7 +1934,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1949,7 +1954,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1969,7 +1974,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -1989,9 +1994,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -2007,7 +2012,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2027,7 +2032,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2047,7 +2052,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2067,7 +2072,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2087,12 +2092,12 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -2110,15 +2115,15 @@
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
       <c r="K28" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -2136,10 +2141,10 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2159,7 +2164,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2179,7 +2184,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2199,7 +2204,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2219,7 +2224,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2239,7 +2244,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2259,9 +2264,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -2277,7 +2282,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2297,7 +2302,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2317,7 +2322,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2337,7 +2342,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2357,7 +2362,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2377,7 +2382,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2397,7 +2402,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2417,7 +2422,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2437,7 +2442,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2457,7 +2462,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2477,7 +2482,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2497,12 +2502,12 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C48" s="13">
         <v>1.25</v>
@@ -2520,12 +2525,12 @@
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
       <c r="K48" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="47" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="47" t="s">
-        <v>58</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2541,7 +2546,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2561,7 +2566,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2581,7 +2586,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2601,7 +2606,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2621,7 +2626,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2641,7 +2646,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2661,7 +2666,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2681,7 +2686,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2701,7 +2706,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2721,12 +2726,12 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" s="13">
         <v>1.25</v>
@@ -2744,10 +2749,10 @@
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
       <c r="K59" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2767,7 +2772,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2787,9 +2792,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2805,7 +2810,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2825,7 +2830,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2845,7 +2850,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2865,7 +2870,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2885,7 +2890,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -2905,7 +2910,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -2925,7 +2930,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -2945,7 +2950,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -2965,7 +2970,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -2985,7 +2990,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3005,7 +3010,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3025,12 +3030,12 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
       <c r="B74" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" s="13">
         <v>1.25</v>
@@ -3049,9 +3054,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -3067,7 +3072,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3087,7 +3092,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3107,7 +3112,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3127,12 +3132,12 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="40"/>
@@ -3149,7 +3154,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3167,7 +3172,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3185,7 +3190,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3203,7 +3208,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3221,7 +3226,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3239,7 +3244,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3257,7 +3262,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3275,7 +3280,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3293,7 +3298,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3309,7 +3314,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3325,7 +3330,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3341,7 +3346,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3357,7 +3362,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3373,7 +3378,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3389,7 +3394,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3405,7 +3410,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3421,7 +3426,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3437,7 +3442,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3453,7 +3458,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3469,7 +3474,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3485,7 +3490,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3501,7 +3506,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3517,7 +3522,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3533,7 +3538,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3549,7 +3554,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3565,7 +3570,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3581,7 +3586,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="15"/>
       <c r="C106" s="43"/>
@@ -3612,10 +3617,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3638,39 +3643,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3804" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
@@ -3686,7 +3691,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3706,12 +3711,12 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
@@ -3726,7 +3731,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3734,7 +3739,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3747,7 +3752,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3764,7 +3769,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3808,7 +3813,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>234.75</v>
+        <v>232.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3823,9 +3828,9 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3845,12 +3850,12 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43160</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="40"/>
@@ -3869,12 +3874,12 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43191</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="40"/>
@@ -3891,10 +3896,10 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="44"/>
@@ -3913,12 +3918,12 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="40"/>
@@ -3937,10 +3942,10 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="40"/>
@@ -3959,12 +3964,12 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="40"/>
@@ -3983,9 +3988,9 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -4001,12 +4006,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43556</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="40"/>
@@ -4023,12 +4028,12 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43586</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="40">
@@ -4044,15 +4049,15 @@
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43617</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="40"/>
@@ -4069,10 +4074,10 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="40">
@@ -4088,12 +4093,12 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -4109,12 +4114,12 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43831</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="40"/>
@@ -4128,15 +4133,15 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43922</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="40"/>
@@ -4153,10 +4158,10 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="40"/>
@@ -4173,12 +4178,12 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>44013</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="40"/>
@@ -4195,12 +4200,12 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>44075</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="40"/>
@@ -4217,9 +4222,9 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -4235,12 +4240,12 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>44197</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="40"/>
@@ -4259,12 +4264,12 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44228</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="40"/>
@@ -4281,12 +4286,12 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>44287</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="40"/>
@@ -4303,12 +4308,12 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>44348</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="40"/>
@@ -4327,10 +4332,10 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="40"/>
@@ -4346,13 +4351,13 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="40"/>
@@ -4371,9 +4376,9 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4389,12 +4394,12 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>44562</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="40"/>
@@ -4410,15 +4415,15 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>44593</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="40"/>
@@ -4435,10 +4440,10 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="40"/>
@@ -4455,12 +4460,12 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44713</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="40"/>
@@ -4479,12 +4484,12 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>44896</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="40">
@@ -4500,13 +4505,13 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="40"/>
@@ -4523,9 +4528,9 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4541,12 +4546,12 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44986</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="40"/>
@@ -4565,10 +4570,10 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="40"/>
@@ -4587,16 +4592,16 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>45027</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
@@ -4608,14 +4613,18 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="20" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="41"/>
-      <c r="B46" s="20"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="40"/>
+      <c r="D46" s="40">
+        <v>1</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -4625,13 +4634,19 @@
       <c r="H46" s="40"/>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="48">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
-      <c r="B47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="40"/>
+      <c r="D47" s="40">
+        <v>2</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13" t="str">
@@ -4641,9 +4656,11 @@
       <c r="H47" s="40"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4659,7 +4676,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4675,7 +4692,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4691,7 +4708,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4707,7 +4724,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4723,7 +4740,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4739,7 +4756,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4755,7 +4772,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4771,7 +4788,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4787,7 +4804,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4803,7 +4820,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4819,7 +4836,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4835,7 +4852,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4851,7 +4868,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4867,7 +4884,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4883,7 +4900,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4899,7 +4916,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4915,7 +4932,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4931,7 +4948,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -4947,7 +4964,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -4963,7 +4980,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -4979,7 +4996,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -4995,7 +5012,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5011,7 +5028,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5027,7 +5044,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="42"/>
       <c r="B72" s="15"/>
       <c r="C72" s="43"/>
@@ -5058,10 +5075,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5084,28 +5101,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5118,7 +5135,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5147,7 +5164,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>248.75</v>
       </c>
@@ -5171,7 +5188,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5186,10 +5203,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5209,7 +5226,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5235,7 +5252,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5261,7 +5278,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5287,7 +5304,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5313,7 +5330,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5339,7 +5356,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5365,7 +5382,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5391,7 +5408,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5417,7 +5434,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5437,7 +5454,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5457,7 +5474,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5477,7 +5494,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5498,7 +5515,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5519,7 +5536,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5540,7 +5557,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5561,7 +5578,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5582,7 +5599,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5603,7 +5620,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5624,7 +5641,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5645,7 +5662,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5666,7 +5683,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5687,7 +5704,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5708,7 +5725,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5729,7 +5746,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5750,7 +5767,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5771,7 +5788,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5792,7 +5809,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5813,7 +5830,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5834,7 +5851,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5855,7 +5872,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5876,7 +5893,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5897,7 +5914,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5906,7 +5923,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5915,7 +5932,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5924,7 +5941,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5933,7 +5950,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -5942,7 +5959,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -5951,7 +5968,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -5960,7 +5977,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -5969,7 +5986,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -5978,7 +5995,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -5987,7 +6004,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -5996,7 +6013,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6005,7 +6022,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6014,7 +6031,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6023,7 +6040,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6032,7 +6049,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6041,7 +6058,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6050,7 +6067,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6059,7 +6076,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6068,7 +6085,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6077,7 +6094,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6086,7 +6103,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6095,7 +6112,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6104,7 +6121,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6113,7 +6130,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6122,7 +6139,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6131,7 +6148,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6140,7 +6157,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6149,7 +6166,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6158,7 +6175,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -638,17 +638,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,6 +655,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,14 +1580,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1598,16 +1598,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1620,14 +1620,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1653,18 +1653,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3604,17 +3604,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3652,7 +3652,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,14 +3682,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3700,16 +3700,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3722,14 +3722,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3755,18 +3755,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3823,7 +3823,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4661,8 +4661,12 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="41">
+        <v>45047</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C48" s="13"/>
       <c r="D48" s="40"/>
       <c r="E48" s="9"/>
@@ -4671,10 +4675,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H48" s="40"/>
+      <c r="H48" s="40">
+        <v>1</v>
+      </c>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="48">
+        <v>45062</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>5/5,15/2023</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>5/29-31/2023</t>
+  </si>
+  <si>
+    <t>TICC</t>
   </si>
 </sst>
 </file>
@@ -638,14 +647,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -655,9 +667,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1580,14 +1589,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1598,16 +1607,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35947</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1620,14 +1629,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1653,18 +1662,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3604,17 +3613,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3650,9 +3659,9 @@
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="3810" topLeftCell="A42"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3682,14 +3691,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3700,16 +3709,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35947</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3722,14 +3731,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3755,18 +3766,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3813,7 +3824,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>232.75</v>
+        <v>229.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3823,7 +3834,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4686,7 +4697,9 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C49" s="13"/>
       <c r="D49" s="40"/>
       <c r="E49" s="9"/>
@@ -4695,16 +4708,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H49" s="40"/>
+      <c r="H49" s="40">
+        <v>1</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="48">
+        <v>45068</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
-      <c r="B50" s="20"/>
+      <c r="B50" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C50" s="13"/>
-      <c r="D50" s="40"/>
+      <c r="D50" s="40">
+        <v>3</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13" t="str">
@@ -4714,11 +4735,15 @@
       <c r="H50" s="40"/>
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="20"/>
+      <c r="K50" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
-      <c r="B51" s="20"/>
+      <c r="B51" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C51" s="13"/>
       <c r="D51" s="40"/>
       <c r="E51" s="9"/>
@@ -4727,10 +4752,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H51" s="40"/>
+      <c r="H51" s="40">
+        <v>1</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="20"/>
+      <c r="K51" s="48">
+        <v>45072</v>
+      </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>PERIOD</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>TICC</t>
+  </si>
+  <si>
+    <t>6/26,27,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -647,17 +650,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -667,6 +667,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,9 +1559,9 @@
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A25" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A25"/>
+      <selection activeCell="I6" sqref="I6"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1589,14 +1592,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1607,16 +1610,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1629,14 +1632,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1662,18 +1665,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3613,17 +3616,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3659,9 +3662,9 @@
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3810" topLeftCell="A42"/>
+      <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3691,14 +3694,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3709,16 +3712,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3731,16 +3734,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3766,18 +3769,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3824,7 +3827,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>229.75</v>
+        <v>225.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4762,20 +4765,25 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="41"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C52" s="13"/>
-      <c r="D52" s="40"/>
+      <c r="D52" s="40">
+        <v>4</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G52" s="13"/>
       <c r="H52" s="40"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA95806-A265-4F21-BBD8-F54E0F050194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>PERIOD</t>
   </si>
@@ -267,12 +268,15 @@
   </si>
   <si>
     <t>6/26,27,29,30/2023</t>
+  </si>
+  <si>
+    <t>7/12,13,14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -650,14 +654,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -667,9 +674,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1185,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1198,25 +1202,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1228,25 +1232,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1553,34 +1557,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A25"/>
+      <pane ySplit="3576" topLeftCell="A25"/>
       <selection activeCell="I6" sqref="I6"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1592,16 +1596,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1610,18 +1614,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35947</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1632,16 +1636,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1649,7 +1653,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1662,24 +1666,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1714,7 +1718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1738,7 +1742,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1760,7 +1764,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1780,7 +1784,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1800,7 +1804,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1820,7 +1824,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1840,7 +1844,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1866,7 +1870,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1886,7 +1890,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1906,7 +1910,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1926,7 +1930,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1946,7 +1950,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1966,7 +1970,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1986,7 +1990,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2006,7 +2010,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>48</v>
       </c>
@@ -2024,7 +2028,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2044,7 +2048,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2064,7 +2068,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2084,7 +2088,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2104,7 +2108,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2130,7 +2134,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2156,7 +2160,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2176,7 +2180,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2196,7 +2200,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2216,7 +2220,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2236,7 +2240,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2256,7 +2260,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2276,7 +2280,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>53</v>
       </c>
@@ -2294,7 +2298,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2314,7 +2318,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2334,7 +2338,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2354,7 +2358,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2374,7 +2378,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2394,7 +2398,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2434,7 +2438,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2454,7 +2458,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2474,7 +2478,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2494,7 +2498,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2514,7 +2518,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2540,7 +2544,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>57</v>
       </c>
@@ -2558,7 +2562,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2578,7 +2582,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2598,7 +2602,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2618,7 +2622,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2638,7 +2642,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2658,7 +2662,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2678,7 +2682,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2698,7 +2702,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2718,7 +2722,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2764,7 +2768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2784,7 +2788,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>62</v>
       </c>
@@ -2822,7 +2826,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2842,7 +2846,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2862,7 +2866,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2882,7 +2886,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2902,7 +2906,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -2922,7 +2926,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -2942,7 +2946,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -2982,7 +2986,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3002,7 +3006,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3022,7 +3026,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3042,7 +3046,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3066,7 +3070,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>67</v>
       </c>
@@ -3084,7 +3088,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3104,7 +3108,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3124,7 +3128,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3144,7 +3148,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -3166,7 +3170,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3184,7 +3188,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3202,7 +3206,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3220,7 +3224,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3238,7 +3242,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3256,7 +3260,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3274,7 +3278,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3292,7 +3296,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3310,7 +3314,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3326,7 +3330,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3342,7 +3346,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3358,7 +3362,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3374,7 +3378,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3390,7 +3394,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3406,7 +3410,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3422,7 +3426,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3438,7 +3442,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3454,7 +3458,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3470,7 +3474,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3486,7 +3490,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3502,7 +3506,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3518,7 +3522,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3534,7 +3538,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3550,7 +3554,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3566,7 +3570,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3582,7 +3586,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3598,7 +3602,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="42"/>
       <c r="B106" s="15"/>
       <c r="C106" s="43"/>
@@ -3616,23 +3620,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3655,34 +3659,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
+      <pane ySplit="3804" topLeftCell="A42" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K53" sqref="K53"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3694,16 +3698,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3712,18 +3716,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>35947</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3734,18 +3738,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3753,7 +3757,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3766,24 +3770,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3818,7 +3822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3827,7 +3831,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>225.75</v>
+        <v>222.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3842,7 +3846,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3864,7 +3868,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43160</v>
       </c>
@@ -3888,7 +3892,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43191</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>45</v>
@@ -3932,7 +3936,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -3978,7 +3982,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
@@ -4002,7 +4006,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>48</v>
       </c>
@@ -4020,7 +4024,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43556</v>
       </c>
@@ -4042,7 +4046,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43586</v>
       </c>
@@ -4066,7 +4070,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43617</v>
       </c>
@@ -4088,7 +4092,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4110,7 +4114,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>53</v>
       </c>
@@ -4128,7 +4132,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43831</v>
       </c>
@@ -4150,7 +4154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43922</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>44</v>
@@ -4192,7 +4196,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>44013</v>
       </c>
@@ -4214,7 +4218,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>44075</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>57</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>44197</v>
       </c>
@@ -4278,7 +4282,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>44228</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>44287</v>
       </c>
@@ -4322,7 +4326,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>44348</v>
       </c>
@@ -4346,7 +4350,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -4368,7 +4372,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -4390,7 +4394,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>62</v>
       </c>
@@ -4408,7 +4412,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>44562</v>
       </c>
@@ -4432,7 +4436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>44593</v>
       </c>
@@ -4454,7 +4458,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
@@ -4474,7 +4478,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>44713</v>
       </c>
@@ -4498,7 +4502,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>44896</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>44</v>
@@ -4542,7 +4546,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>67</v>
       </c>
@@ -4560,7 +4564,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44986</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4606,7 +4610,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>45027</v>
       </c>
@@ -4630,7 +4634,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4652,7 +4656,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -4674,7 +4678,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>45047</v>
       </c>
@@ -4698,7 +4702,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4720,7 +4724,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>73</v>
@@ -4742,7 +4746,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -4764,7 +4768,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>45078</v>
       </c>
@@ -4785,11 +4789,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="41"/>
-      <c r="B53" s="20"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="41">
+        <v>45110</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="40"/>
+      <c r="D53" s="40">
+        <v>3</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -4799,9 +4809,11 @@
       <c r="H53" s="40"/>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4817,7 +4829,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4833,7 +4845,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4849,7 +4861,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4865,7 +4877,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4881,7 +4893,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4897,7 +4909,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4913,7 +4925,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4929,7 +4941,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4945,7 +4957,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4961,7 +4973,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4977,7 +4989,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -4993,7 +5005,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5009,7 +5021,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5025,7 +5037,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5041,7 +5053,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5057,7 +5069,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5073,7 +5085,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5089,7 +5101,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="42"/>
       <c r="B72" s="15"/>
       <c r="C72" s="43"/>
@@ -5120,10 +5132,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5146,28 +5158,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5180,7 +5192,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5209,7 +5221,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>248.75</v>
       </c>
@@ -5233,7 +5245,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5248,10 +5260,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5271,7 +5283,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5297,7 +5309,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5349,7 +5361,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5375,7 +5387,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5401,7 +5413,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5427,7 +5439,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5453,7 +5465,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5479,7 +5491,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5499,7 +5511,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5519,7 +5531,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5539,7 +5551,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5560,7 +5572,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5581,7 +5593,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5602,7 +5614,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5623,7 +5635,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5644,7 +5656,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5665,7 +5677,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5686,7 +5698,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5707,7 +5719,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5728,7 +5740,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5749,7 +5761,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5770,7 +5782,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5791,7 +5803,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5812,7 +5824,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5833,7 +5845,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5854,7 +5866,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5875,7 +5887,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5896,7 +5908,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5917,7 +5929,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5938,7 +5950,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5959,7 +5971,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5968,7 +5980,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5977,7 +5989,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5986,7 +5998,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -5995,7 +6007,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6004,7 +6016,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6013,7 +6025,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6022,7 +6034,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6031,7 +6043,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6040,7 +6052,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6049,7 +6061,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6058,7 +6070,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6067,7 +6079,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6076,7 +6088,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6085,7 +6097,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6094,7 +6106,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6103,7 +6115,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6112,7 +6124,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6121,7 +6133,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6130,7 +6142,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6139,7 +6151,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6148,7 +6160,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6157,7 +6169,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6166,7 +6178,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6175,7 +6187,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6184,7 +6196,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6193,7 +6205,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6202,7 +6214,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6211,7 +6223,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6220,7 +6232,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA95806-A265-4F21-BBD8-F54E0F050194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
   <si>
     <t>PERIOD</t>
   </si>
@@ -271,12 +270,15 @@
   </si>
   <si>
     <t>7/12,13,14/2023</t>
+  </si>
+  <si>
+    <t>6/7,13/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -654,17 +656,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -674,6 +673,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1185,7 +1187,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1202,25 +1204,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1232,25 +1234,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K72" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1557,34 +1559,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A25"/>
+      <pane ySplit="3570" topLeftCell="A25"/>
       <selection activeCell="I6" sqref="I6"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1596,16 +1598,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1614,18 +1616,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1636,16 +1638,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1653,7 +1655,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1666,24 +1668,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1742,7 +1744,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1764,7 +1766,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1784,7 +1786,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1804,7 +1806,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1824,7 +1826,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1844,7 +1846,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1870,7 +1872,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1890,7 +1892,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1910,7 +1912,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1930,7 +1932,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1950,7 +1952,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1970,7 +1972,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1990,7 +1992,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2010,7 +2012,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>48</v>
       </c>
@@ -2028,7 +2030,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2048,7 +2050,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2068,7 +2070,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2088,7 +2090,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2108,7 +2110,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2180,7 +2182,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2200,7 +2202,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2220,7 +2222,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2240,7 +2242,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2260,7 +2262,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2280,7 +2282,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>53</v>
       </c>
@@ -2298,7 +2300,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2318,7 +2320,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2338,7 +2340,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2358,7 +2360,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2378,7 +2380,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2398,7 +2400,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2418,7 +2420,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2438,7 +2440,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2458,7 +2460,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2478,7 +2480,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2498,7 +2500,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2518,7 +2520,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2544,7 +2546,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>57</v>
       </c>
@@ -2562,7 +2564,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2582,7 +2584,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2602,7 +2604,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2622,7 +2624,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2642,7 +2644,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2662,7 +2664,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2682,7 +2684,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2702,7 +2704,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2722,7 +2724,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2742,7 +2744,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2768,7 +2770,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2788,7 +2790,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2808,7 +2810,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>62</v>
       </c>
@@ -2826,7 +2828,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2846,7 +2848,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2866,7 +2868,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2886,7 +2888,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2906,7 +2908,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -2926,7 +2928,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -2946,7 +2948,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -2966,7 +2968,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -2986,7 +2988,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3006,7 +3008,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3026,7 +3028,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3046,7 +3048,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>67</v>
       </c>
@@ -3088,7 +3090,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3108,7 +3110,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3128,7 +3130,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3148,7 +3150,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3188,7 +3190,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3206,7 +3208,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3224,7 +3226,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3242,7 +3244,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3260,7 +3262,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3278,7 +3280,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3296,7 +3298,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3314,7 +3316,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3330,7 +3332,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3346,7 +3348,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3362,7 +3364,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3378,7 +3380,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3394,7 +3396,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3410,7 +3412,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3426,7 +3428,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3442,7 +3444,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3458,7 +3460,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3474,7 +3476,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3490,7 +3492,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3506,7 +3508,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3522,7 +3524,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3538,7 +3540,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3554,7 +3556,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3570,7 +3572,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3586,7 +3588,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3602,7 +3604,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="15"/>
       <c r="C106" s="43"/>
@@ -3620,23 +3622,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3659,34 +3661,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K72"/>
+  <dimension ref="A2:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3804" topLeftCell="A42" activePane="bottomLeft"/>
+      <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3698,16 +3700,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3716,18 +3718,18 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>35947</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3738,18 +3740,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3757,7 +3759,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3770,24 +3772,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +3824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3841,12 +3843,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3868,7 +3870,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43160</v>
       </c>
@@ -3892,7 +3894,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43191</v>
       </c>
@@ -3914,7 +3916,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>45</v>
@@ -3936,7 +3938,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -3960,7 +3962,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -3982,7 +3984,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>48</v>
       </c>
@@ -4024,7 +4026,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43556</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43586</v>
       </c>
@@ -4070,7 +4072,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43617</v>
       </c>
@@ -4092,7 +4094,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4114,7 +4116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>53</v>
       </c>
@@ -4132,7 +4134,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43831</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43922</v>
       </c>
@@ -4176,7 +4178,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>44</v>
@@ -4196,7 +4198,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>44013</v>
       </c>
@@ -4218,7 +4220,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>44075</v>
       </c>
@@ -4240,7 +4242,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>57</v>
       </c>
@@ -4258,7 +4260,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>44197</v>
       </c>
@@ -4282,7 +4284,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44228</v>
       </c>
@@ -4304,7 +4306,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>44287</v>
       </c>
@@ -4326,7 +4328,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>44348</v>
       </c>
@@ -4350,7 +4352,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -4372,7 +4374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -4394,7 +4396,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>62</v>
       </c>
@@ -4412,7 +4414,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>44562</v>
       </c>
@@ -4436,7 +4438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>44593</v>
       </c>
@@ -4458,7 +4460,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
@@ -4478,7 +4480,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44713</v>
       </c>
@@ -4502,7 +4504,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>44896</v>
       </c>
@@ -4526,7 +4528,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>44</v>
@@ -4546,7 +4548,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>67</v>
       </c>
@@ -4564,7 +4566,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44986</v>
       </c>
@@ -4588,7 +4590,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4610,7 +4612,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>45027</v>
       </c>
@@ -4634,7 +4636,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4656,7 +4658,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -4678,7 +4680,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>45047</v>
       </c>
@@ -4702,7 +4704,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4724,7 +4726,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>73</v>
@@ -4746,7 +4748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -4768,7 +4770,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>45078</v>
       </c>
@@ -4789,35 +4791,39 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="41">
-        <v>45110</v>
-      </c>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C53" s="13"/>
-      <c r="D53" s="40">
-        <v>3</v>
-      </c>
+      <c r="D53" s="40"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H53" s="40"/>
+      <c r="H53" s="40">
+        <v>2</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="11"/>
       <c r="K53" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="41"/>
-      <c r="B54" s="20"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="41">
+        <v>45110</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C54" s="13"/>
-      <c r="D54" s="40"/>
+      <c r="D54" s="40">
+        <v>3</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13" t="str">
@@ -4827,9 +4833,11 @@
       <c r="H54" s="40"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4845,7 +4853,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4861,7 +4869,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4877,7 +4885,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4893,7 +4901,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4909,7 +4917,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4925,7 +4933,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4941,7 +4949,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4957,7 +4965,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4973,7 +4981,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4989,7 +4997,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5005,7 +5013,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5021,7 +5029,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5037,7 +5045,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5053,7 +5061,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5069,7 +5077,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5085,7 +5093,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5101,21 +5109,37 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="42"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="44"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="40"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="44"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="40"/>
       <c r="I72" s="9"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="15"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="42"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="43"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="44"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5132,10 +5156,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5158,28 +5182,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5192,7 +5216,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5221,7 +5245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>248.75</v>
       </c>
@@ -5245,7 +5269,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5260,10 +5284,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5283,7 +5307,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5309,7 +5333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5335,7 +5359,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5361,7 +5385,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5387,7 +5411,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5413,7 +5437,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5439,7 +5463,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5465,7 +5489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5491,7 +5515,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5511,7 +5535,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5531,7 +5555,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5551,7 +5575,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5572,7 +5596,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5593,7 +5617,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5614,7 +5638,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5635,7 +5659,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5656,7 +5680,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5677,7 +5701,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5698,7 +5722,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5719,7 +5743,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5740,7 +5764,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5761,7 +5785,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5782,7 +5806,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5803,7 +5827,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5824,7 +5848,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5845,7 +5869,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5866,7 +5890,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5887,7 +5911,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5908,7 +5932,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5929,7 +5953,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5950,7 +5974,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5971,7 +5995,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -5980,7 +6004,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -5989,7 +6013,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -5998,7 +6022,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6007,7 +6031,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6016,7 +6040,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6025,7 +6049,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6034,7 +6058,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6043,7 +6067,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6052,7 +6076,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6061,7 +6085,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6070,7 +6094,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6079,7 +6103,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6088,7 +6112,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6097,7 +6121,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6106,7 +6130,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6115,7 +6139,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6124,7 +6148,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6133,7 +6157,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6142,7 +6166,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6151,7 +6175,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6160,7 +6184,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6169,7 +6193,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6178,7 +6202,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6187,7 +6211,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6196,7 +6220,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6205,7 +6229,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6214,7 +6238,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6223,7 +6247,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6232,7 +6256,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08531BC3-4463-48FC-8138-61E6F6F3D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
   <si>
     <t>PERIOD</t>
   </si>
@@ -273,12 +274,18 @@
   </si>
   <si>
     <t>6/7,13/2023</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
+  </si>
+  <si>
+    <t>7/20,21/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1187,7 +1194,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1204,25 +1211,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1234,25 +1241,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1559,34 +1566,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I6" sqref="I6"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1607,7 +1614,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1634,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1647,7 +1654,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1655,7 +1662,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1668,7 +1675,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -1685,7 +1692,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1720,7 +1727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1729,7 +1736,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>58.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1739,12 +1746,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>83.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1766,7 +1773,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1786,7 +1793,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1806,7 +1813,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1826,7 +1833,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1846,7 +1853,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1872,7 +1879,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1892,7 +1899,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1912,7 +1919,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1932,7 +1939,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1952,7 +1959,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1972,7 +1979,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1992,7 +1999,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2012,7 +2019,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>48</v>
       </c>
@@ -2030,7 +2037,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2050,7 +2057,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2070,7 +2077,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2090,7 +2097,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2110,7 +2117,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2136,7 +2143,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2182,7 +2189,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2202,7 +2209,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2222,7 +2229,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2242,7 +2249,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2262,7 +2269,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2282,7 +2289,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
         <v>53</v>
       </c>
@@ -2300,7 +2307,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2320,7 +2327,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2340,7 +2347,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2360,7 +2367,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2380,7 +2387,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2400,7 +2407,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2420,7 +2427,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2440,7 +2447,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2460,7 +2467,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2480,7 +2487,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2500,7 +2507,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2520,7 +2527,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2546,7 +2553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
         <v>57</v>
       </c>
@@ -2564,7 +2571,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2584,7 +2591,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2604,7 +2611,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2624,7 +2631,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2644,7 +2651,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2664,7 +2671,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2684,7 +2691,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2704,7 +2711,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2724,7 +2731,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2744,7 +2751,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2770,7 +2777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2790,7 +2797,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2810,7 +2817,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>62</v>
       </c>
@@ -2828,7 +2835,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2848,7 +2855,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2868,7 +2875,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2888,7 +2895,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2908,7 +2915,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -2928,7 +2935,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -2948,7 +2955,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -2968,7 +2975,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -2988,7 +2995,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3008,7 +3015,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3028,7 +3035,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3048,7 +3055,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3072,7 +3079,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>67</v>
       </c>
@@ -3090,7 +3097,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3110,7 +3117,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3130,7 +3137,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3150,20 +3157,22 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
@@ -3172,61 +3181,67 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
@@ -3244,7 +3259,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3262,7 +3277,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3280,7 +3295,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3298,7 +3313,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3316,7 +3331,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3332,7 +3347,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3348,7 +3363,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3364,7 +3379,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3380,7 +3395,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3396,7 +3411,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3412,7 +3427,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3428,7 +3443,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3444,7 +3459,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3460,7 +3475,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3476,7 +3491,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3492,7 +3507,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3508,7 +3523,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3524,7 +3539,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3540,7 +3555,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3556,7 +3571,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3572,7 +3587,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3588,7 +3603,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3604,7 +3619,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="42"/>
       <c r="B106" s="15"/>
       <c r="C106" s="43"/>
@@ -3635,10 +3650,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3661,34 +3676,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3810" topLeftCell="A39" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3804" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53"/>
+      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3709,7 +3724,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3729,7 +3744,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3751,7 +3766,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3759,7 +3774,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3772,7 +3787,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3789,7 +3804,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3824,7 +3839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3843,12 +3858,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3870,7 +3885,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43160</v>
       </c>
@@ -3894,7 +3909,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43191</v>
       </c>
@@ -3916,7 +3931,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>45</v>
@@ -3938,7 +3953,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -3962,7 +3977,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -3984,7 +3999,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
@@ -4008,7 +4023,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>48</v>
       </c>
@@ -4026,7 +4041,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43556</v>
       </c>
@@ -4048,7 +4063,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43586</v>
       </c>
@@ -4072,7 +4087,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43617</v>
       </c>
@@ -4094,7 +4109,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4116,7 +4131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="47" t="s">
         <v>53</v>
       </c>
@@ -4134,7 +4149,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>43831</v>
       </c>
@@ -4156,7 +4171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43922</v>
       </c>
@@ -4178,7 +4193,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>44</v>
@@ -4198,7 +4213,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>44013</v>
       </c>
@@ -4220,7 +4235,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>44075</v>
       </c>
@@ -4242,7 +4257,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>57</v>
       </c>
@@ -4260,7 +4275,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>44197</v>
       </c>
@@ -4284,7 +4299,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>44228</v>
       </c>
@@ -4306,7 +4321,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>44287</v>
       </c>
@@ -4328,7 +4343,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>44348</v>
       </c>
@@ -4352,7 +4367,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -4374,7 +4389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -4396,7 +4411,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="47" t="s">
         <v>62</v>
       </c>
@@ -4414,7 +4429,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>44562</v>
       </c>
@@ -4438,7 +4453,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>44593</v>
       </c>
@@ -4460,7 +4475,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
@@ -4480,7 +4495,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>44713</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>44896</v>
       </c>
@@ -4528,7 +4543,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>44</v>
@@ -4548,7 +4563,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="47" t="s">
         <v>67</v>
       </c>
@@ -4566,7 +4581,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44986</v>
       </c>
@@ -4590,7 +4605,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4612,7 +4627,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>45027</v>
       </c>
@@ -4636,7 +4651,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4658,7 +4673,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -4680,7 +4695,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>45047</v>
       </c>
@@ -4704,7 +4719,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4726,7 +4741,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>73</v>
@@ -4748,7 +4763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -4770,7 +4785,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>45078</v>
       </c>
@@ -4791,7 +4806,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -4813,7 +4828,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>45110</v>
       </c>
@@ -4837,9 +4852,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="41"/>
-      <c r="B55" s="20"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="41">
+        <v>45133</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C55" s="13"/>
       <c r="D55" s="40"/>
       <c r="E55" s="9"/>
@@ -4848,12 +4867,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H55" s="40"/>
+      <c r="H55" s="40">
+        <v>2</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4869,7 +4892,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4885,7 +4908,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4901,7 +4924,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4917,7 +4940,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4933,7 +4956,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4949,7 +4972,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4965,7 +4988,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4981,7 +5004,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4997,7 +5020,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5013,7 +5036,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5029,7 +5052,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5045,7 +5068,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5061,7 +5084,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5077,7 +5100,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5093,7 +5116,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5109,7 +5132,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5125,7 +5148,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="42"/>
       <c r="B73" s="15"/>
       <c r="C73" s="43"/>
@@ -5156,10 +5179,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5182,28 +5205,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5216,7 +5239,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5245,7 +5268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>248.75</v>
       </c>
@@ -5269,7 +5292,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5284,10 +5307,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5307,7 +5333,11 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
+        <v>142.5</v>
+      </c>
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5333,7 +5363,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5359,7 +5389,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5385,7 +5415,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5411,7 +5441,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5437,7 +5467,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5463,7 +5493,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5489,7 +5519,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5515,7 +5545,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5535,7 +5565,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5555,7 +5585,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5575,7 +5605,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5596,7 +5626,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5617,7 +5647,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5638,7 +5668,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5659,7 +5689,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5680,7 +5710,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5701,7 +5731,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5722,7 +5752,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5743,7 +5773,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5764,7 +5794,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5785,7 +5815,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5806,7 +5836,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5827,7 +5857,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5848,7 +5878,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5869,7 +5899,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5890,7 +5920,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5911,7 +5941,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5932,7 +5962,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5953,7 +5983,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -5974,7 +6004,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -5995,7 +6025,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6004,7 +6034,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6013,7 +6043,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6022,7 +6052,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6031,7 +6061,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6040,7 +6070,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6049,7 +6079,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6058,7 +6088,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6067,7 +6097,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6076,7 +6106,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6085,7 +6115,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6094,7 +6124,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6103,7 +6133,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6112,7 +6142,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6121,7 +6151,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6130,7 +6160,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6139,7 +6169,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6148,7 +6178,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6157,7 +6187,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6166,7 +6196,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6175,7 +6205,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6184,7 +6214,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6193,7 +6223,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6202,7 +6232,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6211,7 +6241,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6220,7 +6250,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6229,7 +6259,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6238,7 +6268,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6247,7 +6277,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6256,7 +6286,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
+++ b/NEW HR/RODRIGUEZ, JOSEPHINE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08531BC3-4463-48FC-8138-61E6F6F3D3F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="85">
   <si>
     <t>PERIOD</t>
   </si>
@@ -280,12 +279,24 @@
   </si>
   <si>
     <t>7/20,21/2023</t>
+  </si>
+  <si>
+    <t>8/16-18/2023</t>
+  </si>
+  <si>
+    <t>8/4,11/2023</t>
+  </si>
+  <si>
+    <t>9/4-6/2023</t>
+  </si>
+  <si>
+    <t>9/13-15/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1194,7 +1205,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1211,25 +1222,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K106" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1241,25 +1252,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K73" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1566,34 +1577,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A70" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I6" sqref="I6"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81:C82"/>
+      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1614,7 +1625,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1634,7 +1645,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1654,7 +1665,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1662,7 +1673,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1675,7 +1686,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -1692,7 +1703,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1727,7 +1738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1736,7 +1747,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>58.75</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1746,12 +1757,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>83.75</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -1773,7 +1784,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1793,7 +1804,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1813,7 +1824,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="48"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1833,7 +1844,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1853,7 +1864,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1879,7 +1890,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1899,7 +1910,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1919,7 +1930,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1939,7 +1950,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1959,7 +1970,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1979,7 +1990,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -1999,7 +2010,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2019,7 +2030,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>48</v>
       </c>
@@ -2037,7 +2048,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43466</v>
       </c>
@@ -2057,7 +2068,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43497</v>
       </c>
@@ -2077,7 +2088,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43525</v>
       </c>
@@ -2097,7 +2108,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43556</v>
       </c>
@@ -2117,7 +2128,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43586</v>
       </c>
@@ -2143,7 +2154,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43617</v>
       </c>
@@ -2169,7 +2180,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43647</v>
       </c>
@@ -2189,7 +2200,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43678</v>
       </c>
@@ -2209,7 +2220,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43709</v>
       </c>
@@ -2229,7 +2240,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43739</v>
       </c>
@@ -2249,7 +2260,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43770</v>
       </c>
@@ -2269,7 +2280,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43800</v>
       </c>
@@ -2289,7 +2300,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="47" t="s">
         <v>53</v>
       </c>
@@ -2307,7 +2318,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>43831</v>
       </c>
@@ -2327,7 +2338,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>43862</v>
       </c>
@@ -2347,7 +2358,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43891</v>
       </c>
@@ -2367,7 +2378,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43922</v>
       </c>
@@ -2387,7 +2398,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43952</v>
       </c>
@@ -2407,7 +2418,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43983</v>
       </c>
@@ -2427,7 +2438,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44013</v>
       </c>
@@ -2447,7 +2458,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="48"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>44044</v>
       </c>
@@ -2467,7 +2478,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44075</v>
       </c>
@@ -2487,7 +2498,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="48"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44105</v>
       </c>
@@ -2507,7 +2518,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44136</v>
       </c>
@@ -2527,7 +2538,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44166</v>
       </c>
@@ -2553,7 +2564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47" t="s">
         <v>57</v>
       </c>
@@ -2571,7 +2582,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44197</v>
       </c>
@@ -2591,7 +2602,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="48"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41">
         <v>44228</v>
       </c>
@@ -2611,7 +2622,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="48"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44256</v>
       </c>
@@ -2631,7 +2642,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44287</v>
       </c>
@@ -2651,7 +2662,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="48"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44317</v>
       </c>
@@ -2671,7 +2682,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44348</v>
       </c>
@@ -2691,7 +2702,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="48"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44378</v>
       </c>
@@ -2711,7 +2722,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44409</v>
       </c>
@@ -2731,7 +2742,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44440</v>
       </c>
@@ -2751,7 +2762,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44470</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44501</v>
       </c>
@@ -2797,7 +2808,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44531</v>
       </c>
@@ -2817,7 +2828,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>62</v>
       </c>
@@ -2835,7 +2846,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44562</v>
       </c>
@@ -2855,7 +2866,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41">
         <v>44593</v>
       </c>
@@ -2875,7 +2886,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="48"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44621</v>
       </c>
@@ -2895,7 +2906,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44652</v>
       </c>
@@ -2915,7 +2926,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44682</v>
       </c>
@@ -2935,7 +2946,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44713</v>
       </c>
@@ -2955,7 +2966,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44743</v>
       </c>
@@ -2975,7 +2986,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44774</v>
       </c>
@@ -2995,7 +3006,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44805</v>
       </c>
@@ -3015,7 +3026,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44835</v>
       </c>
@@ -3035,7 +3046,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41">
         <v>44866</v>
       </c>
@@ -3055,7 +3066,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44896</v>
       </c>
@@ -3079,7 +3090,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>67</v>
       </c>
@@ -3097,7 +3108,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44927</v>
       </c>
@@ -3117,7 +3128,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44958</v>
       </c>
@@ -3137,7 +3148,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="41">
         <v>44986</v>
       </c>
@@ -3157,7 +3168,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>45017</v>
       </c>
@@ -3181,7 +3192,7 @@
         <v>45030</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>45047</v>
       </c>
@@ -3201,7 +3212,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41">
         <v>45078</v>
       </c>
@@ -3221,7 +3232,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>45108</v>
       </c>
@@ -3241,25 +3252,27 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41">
         <v>45139</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45170</v>
       </c>
@@ -3277,7 +3290,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41">
         <v>45200</v>
       </c>
@@ -3295,7 +3308,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41">
         <v>45231</v>
       </c>
@@ -3313,7 +3326,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45261</v>
       </c>
@@ -3331,7 +3344,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3347,7 +3360,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3363,7 +3376,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3379,7 +3392,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3395,7 +3408,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3411,7 +3424,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3427,7 +3440,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3443,7 +3456,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3459,7 +3472,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3475,7 +3488,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="41"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3491,7 +3504,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3507,7 +3520,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3523,7 +3536,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3539,7 +3552,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3555,7 +3568,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3571,7 +3584,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3587,7 +3600,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3603,7 +3616,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3619,7 +3632,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="42"/>
       <c r="B106" s="15"/>
       <c r="C106" s="43"/>
@@ -3650,10 +3663,10 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3676,34 +3689,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K73"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3804" topLeftCell="A45" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3810" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K56" sqref="K56"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3724,7 +3737,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3744,7 +3757,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3766,7 +3779,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3774,7 +3787,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3787,7 +3800,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3804,7 +3817,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3839,7 +3852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3848,7 +3861,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>222.75</v>
+        <v>216.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3858,12 +3871,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3885,7 +3898,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43160</v>
       </c>
@@ -3909,7 +3922,7 @@
         <v>43175</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43191</v>
       </c>
@@ -3931,7 +3944,7 @@
         <v>43195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42"/>
       <c r="B13" s="15" t="s">
         <v>45</v>
@@ -3953,7 +3966,7 @@
         <v>43208</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43221</v>
       </c>
@@ -3977,7 +3990,7 @@
         <v>43213</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -3999,7 +4012,7 @@
         <v>43222</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43313</v>
       </c>
@@ -4023,7 +4036,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
         <v>48</v>
       </c>
@@ -4041,7 +4054,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43556</v>
       </c>
@@ -4063,7 +4076,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43586</v>
       </c>
@@ -4087,7 +4100,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43617</v>
       </c>
@@ -4109,7 +4122,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
       <c r="B21" s="20" t="s">
         <v>49</v>
@@ -4131,7 +4144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>53</v>
       </c>
@@ -4149,7 +4162,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <v>43831</v>
       </c>
@@ -4171,7 +4184,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43922</v>
       </c>
@@ -4193,7 +4206,7 @@
         <v>43935</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41"/>
       <c r="B25" s="20" t="s">
         <v>44</v>
@@ -4213,7 +4226,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>44013</v>
       </c>
@@ -4235,7 +4248,7 @@
         <v>44031</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>44075</v>
       </c>
@@ -4257,7 +4270,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>57</v>
       </c>
@@ -4275,7 +4288,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>44197</v>
       </c>
@@ -4299,7 +4312,7 @@
         <v>44211</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44228</v>
       </c>
@@ -4321,7 +4334,7 @@
         <v>44250</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>44287</v>
       </c>
@@ -4343,7 +4356,7 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>44348</v>
       </c>
@@ -4367,7 +4380,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
       <c r="B33" s="20" t="s">
         <v>58</v>
@@ -4389,7 +4402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>45</v>
@@ -4411,7 +4424,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="47" t="s">
         <v>62</v>
       </c>
@@ -4429,7 +4442,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>44562</v>
       </c>
@@ -4453,7 +4466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41">
         <v>44593</v>
       </c>
@@ -4475,7 +4488,7 @@
         <v>44584</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41"/>
       <c r="B38" s="20" t="s">
         <v>44</v>
@@ -4495,7 +4508,7 @@
         <v>44705</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44713</v>
       </c>
@@ -4519,7 +4532,7 @@
         <v>44725</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>44896</v>
       </c>
@@ -4543,7 +4556,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="20" t="s">
         <v>44</v>
@@ -4563,7 +4576,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="47" t="s">
         <v>67</v>
       </c>
@@ -4581,7 +4594,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44986</v>
       </c>
@@ -4605,7 +4618,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
       <c r="B44" s="20" t="s">
         <v>45</v>
@@ -4627,7 +4640,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>45027</v>
       </c>
@@ -4651,7 +4664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41"/>
       <c r="B46" s="20" t="s">
         <v>70</v>
@@ -4673,7 +4686,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41"/>
       <c r="B47" s="20" t="s">
         <v>71</v>
@@ -4695,7 +4708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>45047</v>
       </c>
@@ -4719,7 +4732,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="20" t="s">
         <v>45</v>
@@ -4741,7 +4754,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>73</v>
@@ -4763,7 +4776,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>45</v>
@@ -4785,7 +4798,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>45078</v>
       </c>
@@ -4806,7 +4819,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
         <v>58</v>
@@ -4828,7 +4841,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>45110</v>
       </c>
@@ -4852,7 +4865,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>45133</v>
       </c>
@@ -4876,11 +4889,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="41"/>
-      <c r="B56" s="20"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="41">
+        <v>45153</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C56" s="13"/>
-      <c r="D56" s="40"/>
+      <c r="D56" s="40">
+        <v>3</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13" t="str">
@@ -4890,11 +4909,15 @@
       <c r="H56" s="40"/>
       <c r="I56" s="9"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="20"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K56" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
-      <c r="B57" s="20"/>
+      <c r="B57" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C57" s="13"/>
       <c r="D57" s="40"/>
       <c r="E57" s="9"/>
@@ -4903,16 +4926,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H57" s="40"/>
+      <c r="H57" s="40">
+        <v>2</v>
+      </c>
       <c r="I57" s="9"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="20"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="41"/>
-      <c r="B58" s="20"/>
+      <c r="K57" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C58" s="13"/>
-      <c r="D58" s="40"/>
+      <c r="D58" s="40">
+        <v>3</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13" t="str">
@@ -4922,11 +4955,15 @@
       <c r="H58" s="40"/>
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
-      <c r="B59" s="20"/>
+      <c r="B59" s="20" t="s">
+        <v>63</v>
+      </c>
       <c r="C59" s="13"/>
       <c r="D59" s="40"/>
       <c r="E59" s="9"/>
@@ -4935,12 +4972,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="40"/>
+      <c r="H59" s="40">
+        <v>3</v>
+      </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4956,7 +4997,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4972,7 +5013,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4988,7 +5029,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -5004,7 +5045,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="41"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -5020,7 +5061,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5036,7 +5077,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5052,7 +5093,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5068,7 +5109,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5084,7 +5125,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5100,7 +5141,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5116,7 +5157,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -5132,7 +5173,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -5148,7 +5189,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="42"/>
       <c r="B73" s="15"/>
       <c r="C73" s="43"/>
@@ -5179,10 +5220,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5205,28 +5246,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5239,7 +5280,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5268,7 +5309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>248.75</v>
       </c>
@@ -5292,7 +5333,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5307,10 +5348,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -5333,10 +5374,10 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>142.5</v>
+        <v>145</v>
       </c>
       <c r="C7" s="38">
         <v>1</v>
@@ -5363,7 +5404,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5389,7 +5430,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5415,7 +5456,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5441,7 +5482,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5467,7 +5508,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5493,7 +5534,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5519,7 +5560,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5545,7 +5586,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5565,7 +5606,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5585,7 +5626,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5605,7 +5646,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5626,7 +5667,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5647,7 +5688,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5668,7 +5709,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5689,7 +5730,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5710,7 +5751,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5731,7 +5772,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5752,7 +5793,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5773,7 +5814,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5794,7 +5835,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5815,7 +5856,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5836,7 +5877,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5857,7 +5898,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5878,7 +5919,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5899,7 +5940,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5920,7 +5961,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5941,7 +5982,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5962,7 +6003,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -5983,7 +6024,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6004,7 +6045,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6025,7 +6066,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6034,7 +6075,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6043,7 +6084,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6052,7 +6093,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6061,7 +6102,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6070,7 +6111,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6079,7 +6120,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6088,7 +6129,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6097,7 +6138,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6106,7 +6147,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6115,7 +6156,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6124,7 +6165,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6133,7 +6174,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6142,7 +6183,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6151,7 +6192,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6160,7 +6201,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6169,7 +6210,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6178,7 +6219,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6187,7 +6228,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6196,7 +6237,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6205,7 +6246,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6214,7 +6255,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6223,7 +6264,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6232,7 +6273,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6241,7 +6282,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6250,7 +6291,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6259,7 +6300,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6268,7 +6309,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6277,7 +6318,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6286,7 +6327,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
